--- a/Datos/Database by set/Set with text box/Xlsx sets/IDW Comics 2014 (PI14).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/IDW Comics 2014 (PI14).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,84 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acquire</t>
+          <t>('Acquire', ['{3}{U}{U}', 'Sorcery', 'Search target opponent’s library for an artifact card and put that card onto the battlefield under your control. Then that player shuffles their library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{U}{U}</t>
+          <t>('Duress', ['{B}', 'Sorcery', 'Target opponent reveals their hand. You choose a noncreature, nonland card from it. That player discards that card.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Search target opponent’s library for an artifact card and put that card onto the battlefield under your control. Then that player shuffles their library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Duress</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Target opponent reveals their hand. You choose a noncreature, nonland card from it. That player discards that card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Wash Out</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{3}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Return all permanents of the color of your choice to their owners’ hands.</t>
+          <t>('Wash Out', ['{3}{U}', 'Sorcery', 'Return all permanents of the color of your choice to their owners’ hands.'])</t>
         </is>
       </c>
     </row>
